--- a/medicine/Pharmacie/Côme_et_Damien/Côme_et_Damien.xlsx
+++ b/medicine/Pharmacie/Côme_et_Damien/Côme_et_Damien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4me_et_Damien</t>
+          <t>Côme_et_Damien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saint Côme (anciennement Cosme), patron des chirurgiens, né en Arabie, pratiquait la médecine à Aigéai en Cilicie, ainsi que son frère, Damien, lui, saint patron des pharmaciens. Ils souffrirent ensemble le martyre sous Dioclétien en 303. On les appelle « anargyres » parce qu'ils soignaient sans accepter d'argent. On les fête le 26 septembre et le 1er juillet en Occident, et le 1er novembre en Orient (au calendrier julien comme au calendrier grégorien).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4me_et_Damien</t>
+          <t>Côme_et_Damien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’origine arabe[1],[2], ils naquirent en Arabie et pratiquèrent la médecine dans le port maritime d'Aigéai dans le golfe d'Alexandrette, puis dans la province romaine de Syrie. Si l'on en croit la Catholic Encyclopedia ils n'acceptaient aucun paiement pour leurs services, ce qui leur valut le surnom d'anargyroï, c'est-à-dire « sans argent », et attirèrent ainsi un grand nombre de gens à la foi chrétienne[3]. Cosme, ou Côme se dit Cosmas en latin, Κοσμάς en grec, Cosimo en italien, Kozma en russe et Kozman en copte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’origine arabe ils naquirent en Arabie et pratiquèrent la médecine dans le port maritime d'Aigéai dans le golfe d'Alexandrette, puis dans la province romaine de Syrie. Si l'on en croit la Catholic Encyclopedia ils n'acceptaient aucun paiement pour leurs services, ce qui leur valut le surnom d'anargyroï, c'est-à-dire « sans argent », et attirèrent ainsi un grand nombre de gens à la foi chrétienne. Cosme, ou Côme se dit Cosmas en latin, Κοσμάς en grec, Cosimo en italien, Kozma en russe et Kozman en copte.
 Pendant les persécutions de Dioclétien, Côme et Damien furent arrêtés sur l'ordre du préfet de Cilicie, un certain Lysias dont c'est la seule initiative connue. Il leur ordonna d'abjurer sous la torture. Selon la légende, ils restèrent fidèles à leur foi en dépit de toute une série de tortures affreuses auxquelles ils restèrent insensibles ; finalement ils furent décapités. Leurs frères cadets Anthime, Léonce et Euprepius, qui les suivaient partout, partagèrent leur martyre.
 La plus célèbre de leurs cures miraculeuses rapportées, la greffe d'une jambe de Maure pour remplacer la jambe nécrosée d'un patient, fit l'objet de nombreuses peintures et miniatures.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4me_et_Damien</t>
+          <t>Côme_et_Damien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Culte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le IVe siècle, on a consacré aux saints jumeaux des églises à Jérusalem, en Égypte et en Mésopotamie[réf. nécessaire]. Théodoret enregistra le partage de leurs reliques. Jugées miraculeuses, elles furent enterrées dans la ville de Cyrus en Syrie. Des églises furent construites en leur honneur par le patriarche Proclus et l'empereur Justinien Ier (527-565), qui fit restaurer somptueusement la ville de Cyrus et la consacra aux jumeaux, mais fit transporter leurs vestiges à Constantinople. C'est là qu'à la suite d'une guérison qu'il attribua à l'intercession de Côme et Damien, Justinien fit construire et décorer une église en témoignage de gratitude ; elle est devenue un lieu célèbre de pèlerinage. À Rome le pape Félix IV (526-530) reconsacra en leur honneur la bibliothèque de la Paix (Bibliotheca Pacis) sur le forum de Vespasien pour en faire la basilique Santi Cosma e Damiano ; celle-ci a été bien des fois reconstruite mais reste célèbre pour ses mosaïques du VIe siècle représentant les saints.
-Leur célébration dans le calendrier romain général était le jour du 27 septembre, mais en 1969 elle a été déplacée au 26 septembre parce que le dies natalis de saint Vincent de Paul se célèbre comme mémoire obligatoire le 27 septembre[4]. L'Église orthodoxe célèbre les saints Côme et Damien les Romains, Thaumaturges et Anargyres, le 1er juillet[5], les saints Anargyres Cosme et Damien et leurs 3 frères Léone, Anthime et Euprépios le 17 octobre[6] et les saints Cosme et Damien, Anargyres et Thaumaturges, le 1er novembre[7], trois paires de saints de même nom et de même profession. Côme et Damien sont considérés comme les saints patrons des médecins et des chirurgiens et sont quelquefois représentés avec les emblèmes de leur profession.
+Leur célébration dans le calendrier romain général était le jour du 27 septembre, mais en 1969 elle a été déplacée au 26 septembre parce que le dies natalis de saint Vincent de Paul se célèbre comme mémoire obligatoire le 27 septembre. L'Église orthodoxe célèbre les saints Côme et Damien les Romains, Thaumaturges et Anargyres, le 1er juillet, les saints Anargyres Cosme et Damien et leurs 3 frères Léone, Anthime et Euprépios le 17 octobre et les saints Cosme et Damien, Anargyres et Thaumaturges, le 1er novembre, trois paires de saints de même nom et de même profession. Côme et Damien sont considérés comme les saints patrons des médecins et des chirurgiens et sont quelquefois représentés avec les emblèmes de leur profession.
 En Belgique, ils sont les saints patrons des pharmaciens.
 Au Brésil, les saints jumeaux sont considérés comme protecteurs des enfants et on les fête le 27 septembre en donnant aux enfants des sacs de bonbons sur lesquels l'effigie des saints est imprimée. À Isernia, dans la région du Molise, ils sont considérés comme des saints phalliques et sont invoqués pour les problèmes de fertilité.
-Il se forma en France, sous l'invocation de saint Cosme, une confrérie de chirurgiens, dite de Saint-Cosme, qui pendant longtemps partagea l'enseignement et la pratique de la chirurgie avec la faculté de médecine de Paris[8].
+Il se forma en France, sous l'invocation de saint Cosme, une confrérie de chirurgiens, dite de Saint-Cosme, qui pendant longtemps partagea l'enseignement et la pratique de la chirurgie avec la faculté de médecine de Paris.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4me_et_Damien</t>
+          <t>Côme_et_Damien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la plus ancienne figuration que nous conservons de Côme et Damien, celle des mosaïques de Saint-Georges de Thessalonique, au début du Ve siècle, ils sont dénués d'attributs et ne s'identifient que par l'indication de leur nom. A Rome, un siècle plus tard, dans la mosaïque de leur basilique du forum, ils ont en commun la couronne des martyres et la trousse signifiant la capacité de guérir[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la plus ancienne figuration que nous conservons de Côme et Damien, celle des mosaïques de Saint-Georges de Thessalonique, au début du Ve siècle, ils sont dénués d'attributs et ne s'identifient que par l'indication de leur nom. A Rome, un siècle plus tard, dans la mosaïque de leur basilique du forum, ils ont en commun la couronne des martyres et la trousse signifiant la capacité de guérir.
 </t>
         </is>
       </c>
